--- a/biology/Médecine/Joseph_Gauvreau/Joseph_Gauvreau.xlsx
+++ b/biology/Médecine/Joseph_Gauvreau/Joseph_Gauvreau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Gauvreau, né le 27 août 1870 à Rimouski et mort le 10 mars 1942, est un médecin, hygiéniste et journaliste québécois. Il fut l'un des fondateurs de la Ligue des droits du français.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Gauvreau naît à Rimouski le 27 août 1870. Il fait ses études au séminaire de Rimouski avant de poursuivre ses études de médecine à l'Université Laval de Québec et d'y obtenir son diplôme en 1896[1]. Il revient ensuite à Rimouski et commence à y pratiquer sa profession dès 1896[1]. Il se fait construire une luxueuse demeure en 1906-1907, la maison Joseph-Gauvreau, et y installe une clinique d'hydrothérapie au rez-de-chaussée[1]. Cette clinique atteint vite une certaine renommée dans toute la province[2].
-En 1909, il est victime d'un accident de voiture qui le force à se faire amputer le bras et à abandonner la pratique médicale[1]. Il s'installe alors à Montréal, se lance dans le journalisme et devient conférencier. Défenseur de la tradition, des valeurs familiales, du retour à la terre et de la religion, ses interventions s'inscrivent dans le sillage du courant clérico-nationaliste. Ses conférences portent notamment sur la lutte contre l'alcool et le cinéma, l'abstinence, la mortalité infantile (sujet très débattu à l'époque, notamment par les collaborateurs de L'Action française de Lionel Groulx) et surtout l'hygiénisme dont il fut l'un des principaux représentants à l'époque.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Gauvreau naît à Rimouski le 27 août 1870. Il fait ses études au séminaire de Rimouski avant de poursuivre ses études de médecine à l'Université Laval de Québec et d'y obtenir son diplôme en 1896. Il revient ensuite à Rimouski et commence à y pratiquer sa profession dès 1896. Il se fait construire une luxueuse demeure en 1906-1907, la maison Joseph-Gauvreau, et y installe une clinique d'hydrothérapie au rez-de-chaussée. Cette clinique atteint vite une certaine renommée dans toute la province.
+En 1909, il est victime d'un accident de voiture qui le force à se faire amputer le bras et à abandonner la pratique médicale. Il s'installe alors à Montréal, se lance dans le journalisme et devient conférencier. Défenseur de la tradition, des valeurs familiales, du retour à la terre et de la religion, ses interventions s'inscrivent dans le sillage du courant clérico-nationaliste. Ses conférences portent notamment sur la lutte contre l'alcool et le cinéma, l'abstinence, la mortalité infantile (sujet très débattu à l'époque, notamment par les collaborateurs de L'Action française de Lionel Groulx) et surtout l'hygiénisme dont il fut l'un des principaux représentants à l'époque.
 Défenseur des droits des francophones en Amérique, il fut l'un des fondateurs et secrétaire général de la Ligue des Droits du Français de Montréal. Il a contribué régulièrement à L'Union Médicale du Canada. Gauvreau a été, en outre, vice-président de la Société Saint-Jean-Baptiste de Montréal et le premier président de l'École Sociale Populaire de Montréal; il fut également l'un des premiers membres du bureau médical de l'Institut Bruchési. Il était un conférencier réputé et un propagandiste hygiéniste intransigeant; on lui doit plusieurs ouvrages de vulgarisation médicale et d'hygiène sociale. 
-Gauvrau fut Lauréat du prix d'histoire David en 1926. La même année il a été créé chevalier de l'ordre équestre du Saint-Sépulcre de Jérusalem par Pie XI, et il a pris pour devise sur son blason : « Sobrietatis amicus, fidelis in cruce » traduit littéralement par « Ami de la tempérance, fidèle dans l'épreuve »[3].
-Le fonds d’archives Joseph Gauvreau est conservé au centre d’archives de Montréal de Bibliothèque et Archives nationales du Québec[3].
-Il est le père de Jean-Marie Gauvreau, fondateur de l'École du meuble de Montréal[2], et de Marcelle Gauvreau, botaniste et bibliothécaire au Jardin botanique de Montréal.
+Gauvrau fut Lauréat du prix d'histoire David en 1926. La même année il a été créé chevalier de l'ordre équestre du Saint-Sépulcre de Jérusalem par Pie XI, et il a pris pour devise sur son blason : « Sobrietatis amicus, fidelis in cruce » traduit littéralement par « Ami de la tempérance, fidèle dans l'épreuve ».
+Le fonds d’archives Joseph Gauvreau est conservé au centre d’archives de Montréal de Bibliothèque et Archives nationales du Québec.
+Il est le père de Jean-Marie Gauvreau, fondateur de l'École du meuble de Montréal, et de Marcelle Gauvreau, botaniste et bibliothécaire au Jardin botanique de Montréal.
 Il meurt le 10 mars 1942 à l'âge de 71 ans.
 </t>
         </is>
@@ -548,7 +562,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a b c et d Ministère de la Culture et des Communications, « Gauvreau, Joseph », sur Répertoire du patrimoine culturel du Québec (consulté le 6 avril 2013)
